--- a/传感器/连续物位测量/双法兰液位变送器/迈安德物料定义-01属性表-外购设备-双法兰液位变送器.xlsx
+++ b/传感器/连续物位测量/双法兰液位变送器/迈安德物料定义-01属性表-外购设备-双法兰液位变送器.xlsx
@@ -1076,7 +1076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5579,44 +5579,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>A303</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>MaterialofConstruction</t>
-        </is>
-      </c>
-      <c r="D105">
-        <f>"my"&amp;B105&amp;"_"&amp;C105</f>
-        <v/>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" s="1">
-        <f>CONCATENATE(A105," ",D105," ",E105," ","="," ","'",G105,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I105" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D105,,".",G105," ="," ",F105)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106">
-      <c r="H106" s="1" t="n"/>
-      <c r="I106" s="2" t="n"/>
+      <c r="H105" s="1" t="n"/>
+      <c r="I105" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
